--- a/src/resources/countriesDF_carol.xlsx
+++ b/src/resources/countriesDF_carol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Documents\Download-Tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Documents\Download-Tweets\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3E489-68C7-4D1C-8BAE-3CF80CDADCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC9D4B-7EDD-4C7B-A356-864DD6DEFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +709,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -718,8 +719,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>161+1</f>
-        <v>162</v>
+        <v>2.2095150145426308</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>2.2253092817258628</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>1.414973347970818</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>1.6232492903979006</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>1.6434526764861874</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -789,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>1.4913616938342726</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -817,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0.69897000433601886</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>1.0413926851582251</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>0.84509804001425681</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -860,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>1.3222192947339193</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1.0413926851582251</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>1.255272505103306</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -916,7 +916,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0.6020599913279624</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -930,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -944,7 +944,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0.6020599913279624</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -958,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -972,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -986,7 +986,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>1.0791812460476249</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -1028,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="D24" t="s">
         <v>47</v>
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -1056,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -1084,7 +1084,7 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -1098,7 +1098,7 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
@@ -1112,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
@@ -1126,7 +1126,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
@@ -1140,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
@@ -1168,7 +1168,7 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -1182,7 +1182,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -1196,7 +1196,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D36" t="s">
         <v>71</v>
@@ -1210,7 +1210,7 @@
         <v>72</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
@@ -1224,7 +1224,7 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
@@ -1238,7 +1238,7 @@
         <v>76</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>77</v>
@@ -1252,7 +1252,7 @@
         <v>79</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>0.6020599913279624</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
